--- a/docs/excel/TCarPartLevelup.xlsx
+++ b/docs/excel/TCarPartLevelup.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="204" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="204"/>
   </bookViews>
   <sheets>
     <sheet name="TCarPartLevelup" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>Id</t>
   </si>
@@ -24,9 +24,6 @@
   </si>
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
-  </si>
-  <si>
-    <t>ID</t>
   </si>
   <si>
     <t>ObjectType</t>
@@ -132,12 +129,83 @@
     <t>TableName: "TCarPartLevelup" Package: "table" CSClassHeader: "[System.Serializable]"</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>artid</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>u</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>int32</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>部件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>唯一</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
@@ -157,6 +225,12 @@
       <sz val="9"/>
       <name val="Verdana"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -190,7 +264,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -200,26 +274,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -567,21 +631,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="39.5" style="4" customWidth="1"/>
-    <col min="2" max="2" width="9.19921875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.8984375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="15.19921875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.8984375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="9.19921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.8984375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="15.19921875" style="4" customWidth="1"/>
     <col min="6" max="6" width="12.8984375" style="4" customWidth="1"/>
     <col min="8" max="8" width="10.59765625" customWidth="1"/>
-    <col min="9" max="9" width="23.8984375" customWidth="1"/>
-    <col min="10" max="10" width="24.3984375" customWidth="1"/>
     <col min="12" max="12" width="12.8984375" customWidth="1"/>
     <col min="13" max="13" width="14.8984375" customWidth="1"/>
   </cols>
@@ -590,171 +651,166 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="14" t="s">
+      <c r="B1" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="7"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
+      <c r="D1" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
+      <c r="B2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
+      <c r="A4" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:13">
       <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
         <v>1001</v>
       </c>
-      <c r="B5" s="10">
+      <c r="C5" s="7">
         <v>1</v>
       </c>
-      <c r="C5" s="11">
+      <c r="D5" s="8">
         <v>1000</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>1000</v>
       </c>
-      <c r="E5" s="12"/>
       <c r="F5"/>
-      <c r="H5" s="6"/>
+      <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:13">
       <c r="A6"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="11"/>
-      <c r="D6"/>
-      <c r="E6" s="12"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="8"/>
+      <c r="E6"/>
       <c r="F6"/>
-      <c r="H6" s="6"/>
+      <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:13">
       <c r="A7"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="11"/>
-      <c r="D7"/>
-      <c r="E7" s="12"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="8"/>
+      <c r="E7"/>
       <c r="F7"/>
-      <c r="H7" s="6"/>
+      <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8"/>
-      <c r="E8" s="12"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8"/>
       <c r="F8"/>
-      <c r="H8" s="6"/>
+      <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:13">
       <c r="A9"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="11"/>
-      <c r="D9"/>
-      <c r="E9" s="12"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="8"/>
+      <c r="E9"/>
       <c r="F9"/>
-      <c r="H9" s="6"/>
+      <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:13">
       <c r="A10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="11"/>
-      <c r="D10"/>
-      <c r="E10" s="12"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="8"/>
+      <c r="E10"/>
       <c r="F10"/>
-      <c r="H10" s="6"/>
+      <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:13">
       <c r="A11"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11"/>
-      <c r="E11" s="12"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11"/>
       <c r="F11"/>
-      <c r="H11" s="6"/>
+      <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:13">
       <c r="A12"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="13"/>
-      <c r="D12"/>
-      <c r="E12" s="12"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="9"/>
+      <c r="E12"/>
       <c r="F12"/>
-      <c r="H12" s="6"/>
+      <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:13">
       <c r="A13"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="11"/>
-      <c r="D13"/>
-      <c r="E13" s="12"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="8"/>
+      <c r="E13"/>
       <c r="F13"/>
-      <c r="H13" s="6"/>
+      <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:13">
       <c r="A14"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14"/>
-      <c r="E14" s="12"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14"/>
       <c r="F14"/>
-      <c r="H14" s="6"/>
+      <c r="H14" s="5"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="H15" s="6"/>
+      <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="H16" s="6"/>
+      <c r="H16" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -771,7 +827,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -784,59 +840,59 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel/TCarPartLevelup.xlsx
+++ b/docs/excel/TCarPartLevelup.xlsx
@@ -1,168 +1,121 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="204"/>
+    <workbookView windowWidth="28695" windowHeight="13650" tabRatio="204"/>
   </bookViews>
   <sheets>
     <sheet name="TCarPartLevelup" sheetId="1" r:id="rId1"/>
     <sheet name="@Types" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
   <si>
     <t>Id</t>
   </si>
   <si>
-    <t>uint32</t>
-  </si>
-  <si>
-    <t>RepeatCheck:true MakeIndex:true json:"id"</t>
-  </si>
-  <si>
-    <t>ObjectType</t>
-  </si>
-  <si>
-    <t>FieldName</t>
-  </si>
-  <si>
-    <t>FieldType</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>Alias</t>
-  </si>
-  <si>
-    <t>Default</t>
-  </si>
-  <si>
-    <t>Meta</t>
-  </si>
-  <si>
-    <t>Comment</t>
-  </si>
-  <si>
-    <t>对象类型</t>
-  </si>
-  <si>
-    <t>字段名</t>
-  </si>
-  <si>
-    <t>字段类型</t>
-  </si>
-  <si>
-    <t>枚举值</t>
-  </si>
-  <si>
-    <t>别名</t>
-  </si>
-  <si>
-    <t>默认值</t>
-  </si>
-  <si>
-    <t>特性</t>
-  </si>
-  <si>
-    <t>注释</t>
-  </si>
-  <si>
-    <t>uint32</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>升级前等级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>artid</t>
+    </r>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
       <t>E</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
         <rFont val="Verdana"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>xp</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Level</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>uint32</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
       <t>u</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
         <rFont val="Verdana"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>int32</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要经验</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cost</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要金币</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>TableName: "TCarPartLevelup" Package: "table" CSClassHeader: "[System.Serializable]"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
   <si>
     <r>
-      <t>P</t>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>唯一</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
         <rFont val="Verdana"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
-      <t>artid</t>
+      <t>id</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>u</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>int32</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>部件</t>
@@ -171,41 +124,83 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Verdana"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>id</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>ID</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>唯一</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>id</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级前等级</t>
+  </si>
+  <si>
+    <t>需要经验</t>
+  </si>
+  <si>
+    <t>需要金币</t>
+  </si>
+  <si>
+    <t>TableName: "TCarPartLevelup" Package: "table" CSClassHeader: "[System.Serializable]"</t>
+  </si>
+  <si>
+    <t>ObjectType</t>
+  </si>
+  <si>
+    <t>FieldName</t>
+  </si>
+  <si>
+    <t>FieldType</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Alias</t>
+  </si>
+  <si>
+    <t>Default</t>
+  </si>
+  <si>
+    <t>Meta</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>对象类型</t>
+  </si>
+  <si>
+    <t>字段名</t>
+  </si>
+  <si>
+    <t>字段类型</t>
+  </si>
+  <si>
+    <t>枚举值</t>
+  </si>
+  <si>
+    <t>别名</t>
+  </si>
+  <si>
+    <t>默认值</t>
+  </si>
+  <si>
+    <t>特性</t>
+  </si>
+  <si>
+    <t>注释</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
@@ -214,7 +209,7 @@
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -222,18 +217,163 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="Verdana"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -246,8 +386,194 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -255,49 +581,332 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -623,106 +1232,106 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:M54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="D45" sqref="D45:E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="39.5" style="4" customWidth="1"/>
-    <col min="3" max="3" width="9.19921875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.8984375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="15.19921875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="12.8984375" style="4" customWidth="1"/>
-    <col min="8" max="8" width="10.59765625" customWidth="1"/>
-    <col min="12" max="12" width="12.8984375" customWidth="1"/>
-    <col min="13" max="13" width="14.8984375" customWidth="1"/>
+    <col min="3" max="3" width="9.2" style="4" customWidth="1"/>
+    <col min="4" max="4" width="12.9" style="4" customWidth="1"/>
+    <col min="5" max="5" width="15.2" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12.9" style="4" customWidth="1"/>
+    <col min="8" max="8" width="10.6" customWidth="1"/>
+    <col min="12" max="12" width="12.9" customWidth="1"/>
+    <col min="13" max="13" width="14.9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
+        <v>5</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-    </row>
-    <row r="5" spans="1:13">
+        <v>7</v>
+      </c>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5">
         <v>1001</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="4">
         <v>1</v>
       </c>
       <c r="D5" s="8">
@@ -732,90 +1341,864 @@
         <v>1000</v>
       </c>
       <c r="F5"/>
-      <c r="H5" s="5"/>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="8"/>
-      <c r="E6"/>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>1002</v>
+      </c>
+      <c r="C6" s="4">
+        <v>2</v>
+      </c>
+      <c r="D6" s="8">
+        <v>1500</v>
+      </c>
+      <c r="E6">
+        <v>2000</v>
+      </c>
       <c r="F6"/>
-      <c r="H6" s="5"/>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="8"/>
-      <c r="E7"/>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>1003</v>
+      </c>
+      <c r="C7" s="4">
+        <v>3</v>
+      </c>
+      <c r="D7" s="8">
+        <v>2000</v>
+      </c>
+      <c r="E7">
+        <v>3000</v>
+      </c>
       <c r="F7"/>
-      <c r="H7" s="5"/>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8"/>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>1004</v>
+      </c>
+      <c r="C8" s="4">
+        <v>4</v>
+      </c>
+      <c r="D8" s="8">
+        <v>2500</v>
+      </c>
+      <c r="E8">
+        <v>4000</v>
+      </c>
       <c r="F8"/>
-      <c r="H8" s="5"/>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="8"/>
-      <c r="E9"/>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>1005</v>
+      </c>
+      <c r="C9" s="4">
+        <v>5</v>
+      </c>
+      <c r="D9" s="8">
+        <v>3000</v>
+      </c>
+      <c r="E9">
+        <v>5000</v>
+      </c>
       <c r="F9"/>
-      <c r="H9" s="5"/>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="8"/>
-      <c r="E10"/>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>1006</v>
+      </c>
+      <c r="C10" s="4">
+        <v>6</v>
+      </c>
+      <c r="D10" s="8">
+        <v>3500</v>
+      </c>
+      <c r="E10">
+        <v>6000</v>
+      </c>
       <c r="F10"/>
-      <c r="H10" s="5"/>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11"/>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>1007</v>
+      </c>
+      <c r="C11" s="4">
+        <v>7</v>
+      </c>
+      <c r="D11" s="8">
+        <v>4000</v>
+      </c>
+      <c r="E11">
+        <v>7000</v>
+      </c>
       <c r="F11"/>
-      <c r="H11" s="5"/>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="9"/>
-      <c r="E12"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>1008</v>
+      </c>
+      <c r="C12" s="4">
+        <v>8</v>
+      </c>
+      <c r="D12" s="8">
+        <v>4500</v>
+      </c>
+      <c r="E12">
+        <v>8000</v>
+      </c>
       <c r="F12"/>
-      <c r="H12" s="5"/>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="8"/>
-      <c r="E13"/>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>1009</v>
+      </c>
+      <c r="C13" s="4">
+        <v>9</v>
+      </c>
+      <c r="D13" s="8">
+        <v>5000</v>
+      </c>
+      <c r="E13">
+        <v>9000</v>
+      </c>
       <c r="F13"/>
-      <c r="H13" s="5"/>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14"/>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14">
+        <v>10</v>
+      </c>
+      <c r="B14">
+        <v>1010</v>
+      </c>
+      <c r="C14" s="4">
+        <v>10</v>
+      </c>
+      <c r="D14" s="8">
+        <v>5500</v>
+      </c>
+      <c r="E14">
+        <v>10000</v>
+      </c>
       <c r="F14"/>
-      <c r="H14" s="5"/>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="H15" s="5"/>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="H16" s="5"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15">
+        <v>11</v>
+      </c>
+      <c r="B15">
+        <v>2001</v>
+      </c>
+      <c r="C15" s="4">
+        <v>1</v>
+      </c>
+      <c r="D15" s="8">
+        <v>1000</v>
+      </c>
+      <c r="E15">
+        <v>1000</v>
+      </c>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16">
+        <v>12</v>
+      </c>
+      <c r="B16">
+        <v>2002</v>
+      </c>
+      <c r="C16" s="4">
+        <v>2</v>
+      </c>
+      <c r="D16" s="8">
+        <v>1500</v>
+      </c>
+      <c r="E16">
+        <v>2000</v>
+      </c>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>13</v>
+      </c>
+      <c r="B17">
+        <v>2003</v>
+      </c>
+      <c r="C17" s="4">
+        <v>3</v>
+      </c>
+      <c r="D17" s="8">
+        <v>2000</v>
+      </c>
+      <c r="E17">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>14</v>
+      </c>
+      <c r="B18">
+        <v>2004</v>
+      </c>
+      <c r="C18" s="4">
+        <v>4</v>
+      </c>
+      <c r="D18" s="8">
+        <v>2500</v>
+      </c>
+      <c r="E18">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>15</v>
+      </c>
+      <c r="B19">
+        <v>2005</v>
+      </c>
+      <c r="C19" s="4">
+        <v>5</v>
+      </c>
+      <c r="D19" s="8">
+        <v>3000</v>
+      </c>
+      <c r="E19">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>16</v>
+      </c>
+      <c r="B20">
+        <v>2006</v>
+      </c>
+      <c r="C20" s="4">
+        <v>6</v>
+      </c>
+      <c r="D20" s="8">
+        <v>3500</v>
+      </c>
+      <c r="E20">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>17</v>
+      </c>
+      <c r="B21">
+        <v>2007</v>
+      </c>
+      <c r="C21" s="4">
+        <v>7</v>
+      </c>
+      <c r="D21" s="8">
+        <v>4000</v>
+      </c>
+      <c r="E21">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>18</v>
+      </c>
+      <c r="B22">
+        <v>2008</v>
+      </c>
+      <c r="C22" s="4">
+        <v>8</v>
+      </c>
+      <c r="D22" s="8">
+        <v>4500</v>
+      </c>
+      <c r="E22">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>19</v>
+      </c>
+      <c r="B23">
+        <v>2009</v>
+      </c>
+      <c r="C23" s="4">
+        <v>9</v>
+      </c>
+      <c r="D23" s="8">
+        <v>5000</v>
+      </c>
+      <c r="E23">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>20</v>
+      </c>
+      <c r="B24">
+        <v>2010</v>
+      </c>
+      <c r="C24" s="4">
+        <v>10</v>
+      </c>
+      <c r="D24" s="8">
+        <v>5500</v>
+      </c>
+      <c r="E24">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>21</v>
+      </c>
+      <c r="B25">
+        <v>3001</v>
+      </c>
+      <c r="C25" s="4">
+        <v>1</v>
+      </c>
+      <c r="D25" s="8">
+        <v>1000</v>
+      </c>
+      <c r="E25">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <v>22</v>
+      </c>
+      <c r="B26">
+        <v>3002</v>
+      </c>
+      <c r="C26" s="4">
+        <v>2</v>
+      </c>
+      <c r="D26" s="8">
+        <v>1500</v>
+      </c>
+      <c r="E26">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>23</v>
+      </c>
+      <c r="B27">
+        <v>3003</v>
+      </c>
+      <c r="C27" s="4">
+        <v>3</v>
+      </c>
+      <c r="D27" s="8">
+        <v>2000</v>
+      </c>
+      <c r="E27">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <v>24</v>
+      </c>
+      <c r="B28">
+        <v>3004</v>
+      </c>
+      <c r="C28" s="4">
+        <v>4</v>
+      </c>
+      <c r="D28" s="8">
+        <v>2500</v>
+      </c>
+      <c r="E28">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <v>25</v>
+      </c>
+      <c r="B29">
+        <v>3005</v>
+      </c>
+      <c r="C29" s="4">
+        <v>5</v>
+      </c>
+      <c r="D29" s="8">
+        <v>3000</v>
+      </c>
+      <c r="E29">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
+        <v>26</v>
+      </c>
+      <c r="B30">
+        <v>3006</v>
+      </c>
+      <c r="C30" s="4">
+        <v>6</v>
+      </c>
+      <c r="D30" s="8">
+        <v>3500</v>
+      </c>
+      <c r="E30">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31">
+        <v>27</v>
+      </c>
+      <c r="B31">
+        <v>3007</v>
+      </c>
+      <c r="C31" s="4">
+        <v>7</v>
+      </c>
+      <c r="D31" s="8">
+        <v>4000</v>
+      </c>
+      <c r="E31">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32">
+        <v>28</v>
+      </c>
+      <c r="B32">
+        <v>3008</v>
+      </c>
+      <c r="C32" s="4">
+        <v>8</v>
+      </c>
+      <c r="D32" s="8">
+        <v>4500</v>
+      </c>
+      <c r="E32">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33">
+        <v>29</v>
+      </c>
+      <c r="B33">
+        <v>3009</v>
+      </c>
+      <c r="C33" s="4">
+        <v>9</v>
+      </c>
+      <c r="D33" s="8">
+        <v>5000</v>
+      </c>
+      <c r="E33">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34">
+        <v>30</v>
+      </c>
+      <c r="B34">
+        <v>3010</v>
+      </c>
+      <c r="C34" s="4">
+        <v>10</v>
+      </c>
+      <c r="D34" s="8">
+        <v>5500</v>
+      </c>
+      <c r="E34">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35">
+        <v>31</v>
+      </c>
+      <c r="B35">
+        <v>4001</v>
+      </c>
+      <c r="C35" s="4">
+        <v>1</v>
+      </c>
+      <c r="D35" s="8">
+        <v>1000</v>
+      </c>
+      <c r="E35">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36">
+        <v>32</v>
+      </c>
+      <c r="B36">
+        <v>4002</v>
+      </c>
+      <c r="C36" s="4">
+        <v>2</v>
+      </c>
+      <c r="D36" s="8">
+        <v>1500</v>
+      </c>
+      <c r="E36">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37">
+        <v>33</v>
+      </c>
+      <c r="B37">
+        <v>4003</v>
+      </c>
+      <c r="C37" s="4">
+        <v>3</v>
+      </c>
+      <c r="D37" s="8">
+        <v>2000</v>
+      </c>
+      <c r="E37">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38">
+        <v>34</v>
+      </c>
+      <c r="B38">
+        <v>4004</v>
+      </c>
+      <c r="C38" s="4">
+        <v>4</v>
+      </c>
+      <c r="D38" s="8">
+        <v>2500</v>
+      </c>
+      <c r="E38">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39">
+        <v>35</v>
+      </c>
+      <c r="B39">
+        <v>4005</v>
+      </c>
+      <c r="C39" s="4">
+        <v>5</v>
+      </c>
+      <c r="D39" s="8">
+        <v>3000</v>
+      </c>
+      <c r="E39">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40">
+        <v>36</v>
+      </c>
+      <c r="B40">
+        <v>4006</v>
+      </c>
+      <c r="C40" s="4">
+        <v>6</v>
+      </c>
+      <c r="D40" s="8">
+        <v>3500</v>
+      </c>
+      <c r="E40">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41">
+        <v>37</v>
+      </c>
+      <c r="B41">
+        <v>4007</v>
+      </c>
+      <c r="C41" s="4">
+        <v>7</v>
+      </c>
+      <c r="D41" s="8">
+        <v>4000</v>
+      </c>
+      <c r="E41">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42">
+        <v>38</v>
+      </c>
+      <c r="B42">
+        <v>4008</v>
+      </c>
+      <c r="C42" s="4">
+        <v>8</v>
+      </c>
+      <c r="D42" s="8">
+        <v>4500</v>
+      </c>
+      <c r="E42">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43">
+        <v>39</v>
+      </c>
+      <c r="B43">
+        <v>4009</v>
+      </c>
+      <c r="C43" s="4">
+        <v>9</v>
+      </c>
+      <c r="D43" s="8">
+        <v>5000</v>
+      </c>
+      <c r="E43">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44">
+        <v>40</v>
+      </c>
+      <c r="B44">
+        <v>4010</v>
+      </c>
+      <c r="C44" s="4">
+        <v>10</v>
+      </c>
+      <c r="D44" s="8">
+        <v>5500</v>
+      </c>
+      <c r="E44">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45">
+        <v>41</v>
+      </c>
+      <c r="B45">
+        <v>5001</v>
+      </c>
+      <c r="C45" s="4">
+        <v>1</v>
+      </c>
+      <c r="D45" s="8">
+        <v>1000</v>
+      </c>
+      <c r="E45">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46">
+        <v>42</v>
+      </c>
+      <c r="B46">
+        <v>5002</v>
+      </c>
+      <c r="C46" s="4">
+        <v>2</v>
+      </c>
+      <c r="D46" s="8">
+        <v>1500</v>
+      </c>
+      <c r="E46">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47">
+        <v>43</v>
+      </c>
+      <c r="B47">
+        <v>5003</v>
+      </c>
+      <c r="C47" s="4">
+        <v>3</v>
+      </c>
+      <c r="D47" s="8">
+        <v>2000</v>
+      </c>
+      <c r="E47">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48">
+        <v>44</v>
+      </c>
+      <c r="B48">
+        <v>5004</v>
+      </c>
+      <c r="C48" s="4">
+        <v>4</v>
+      </c>
+      <c r="D48" s="8">
+        <v>2500</v>
+      </c>
+      <c r="E48">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49">
+        <v>45</v>
+      </c>
+      <c r="B49">
+        <v>5005</v>
+      </c>
+      <c r="C49" s="4">
+        <v>5</v>
+      </c>
+      <c r="D49" s="8">
+        <v>3000</v>
+      </c>
+      <c r="E49">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50">
+        <v>46</v>
+      </c>
+      <c r="B50">
+        <v>5006</v>
+      </c>
+      <c r="C50" s="4">
+        <v>6</v>
+      </c>
+      <c r="D50" s="8">
+        <v>3500</v>
+      </c>
+      <c r="E50">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51">
+        <v>47</v>
+      </c>
+      <c r="B51">
+        <v>5007</v>
+      </c>
+      <c r="C51" s="4">
+        <v>7</v>
+      </c>
+      <c r="D51" s="8">
+        <v>4000</v>
+      </c>
+      <c r="E51">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52">
+        <v>48</v>
+      </c>
+      <c r="B52">
+        <v>5008</v>
+      </c>
+      <c r="C52" s="4">
+        <v>8</v>
+      </c>
+      <c r="D52" s="8">
+        <v>4500</v>
+      </c>
+      <c r="E52">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53">
+        <v>49</v>
+      </c>
+      <c r="B53">
+        <v>5009</v>
+      </c>
+      <c r="C53" s="4">
+        <v>9</v>
+      </c>
+      <c r="D53" s="8">
+        <v>5000</v>
+      </c>
+      <c r="E53">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54">
+        <v>50</v>
+      </c>
+      <c r="B54">
+        <v>5010</v>
+      </c>
+      <c r="C54" s="4">
+        <v>10</v>
+      </c>
+      <c r="D54" s="8">
+        <v>5500</v>
+      </c>
+      <c r="E54">
+        <v>10000</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" r:id="rId1"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -824,80 +2207,80 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="83.5" style="1" customWidth="1"/>
-    <col min="2" max="8" width="8.796875" style="1"/>
-    <col min="9" max="16384" width="8.796875" style="2"/>
+    <col min="2" max="8" width="8.8" style="1"/>
+    <col min="9" max="16384" width="8.8" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="3" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>

--- a/docs/excel/TCarPartLevelup.xlsx
+++ b/docs/excel/TCarPartLevelup.xlsx
@@ -196,16 +196,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
-    <font>
-      <sz val="12"/>
-      <name val="Verdana"/>
-      <charset val="134"/>
-    </font>
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
@@ -224,14 +219,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -246,9 +233,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -256,20 +258,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -283,8 +271,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -299,16 +327,15 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -322,16 +349,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -343,35 +362,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -394,181 +384,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -587,30 +577,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -639,13 +605,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -679,176 +649,193 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1241,7 +1228,7 @@
   <dimension ref="A1:M54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45:E54"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1272,10 +1259,10 @@
       <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
@@ -1293,16 +1280,16 @@
       <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="5" t="s">
@@ -1311,18 +1298,18 @@
       <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5">
@@ -1334,14 +1321,14 @@
       <c r="C5" s="4">
         <v>1</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="7">
         <v>1000</v>
       </c>
       <c r="E5">
         <v>1000</v>
       </c>
       <c r="F5"/>
-      <c r="H5" s="6"/>
+      <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6">
@@ -1353,14 +1340,14 @@
       <c r="C6" s="4">
         <v>2</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="7">
         <v>1500</v>
       </c>
       <c r="E6">
         <v>2000</v>
       </c>
       <c r="F6"/>
-      <c r="H6" s="6"/>
+      <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7">
@@ -1372,14 +1359,14 @@
       <c r="C7" s="4">
         <v>3</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="7">
         <v>2000</v>
       </c>
       <c r="E7">
         <v>3000</v>
       </c>
       <c r="F7"/>
-      <c r="H7" s="6"/>
+      <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8">
@@ -1391,14 +1378,14 @@
       <c r="C8" s="4">
         <v>4</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="7">
         <v>2500</v>
       </c>
       <c r="E8">
         <v>4000</v>
       </c>
       <c r="F8"/>
-      <c r="H8" s="6"/>
+      <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9">
@@ -1410,14 +1397,14 @@
       <c r="C9" s="4">
         <v>5</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="7">
         <v>3000</v>
       </c>
       <c r="E9">
         <v>5000</v>
       </c>
       <c r="F9"/>
-      <c r="H9" s="6"/>
+      <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10">
@@ -1429,14 +1416,14 @@
       <c r="C10" s="4">
         <v>6</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="7">
         <v>3500</v>
       </c>
       <c r="E10">
         <v>6000</v>
       </c>
       <c r="F10"/>
-      <c r="H10" s="6"/>
+      <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11">
@@ -1448,14 +1435,14 @@
       <c r="C11" s="4">
         <v>7</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="7">
         <v>4000</v>
       </c>
       <c r="E11">
         <v>7000</v>
       </c>
       <c r="F11"/>
-      <c r="H11" s="6"/>
+      <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12">
@@ -1467,14 +1454,14 @@
       <c r="C12" s="4">
         <v>8</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="7">
         <v>4500</v>
       </c>
       <c r="E12">
         <v>8000</v>
       </c>
       <c r="F12"/>
-      <c r="H12" s="6"/>
+      <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13">
@@ -1486,14 +1473,14 @@
       <c r="C13" s="4">
         <v>9</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="7">
         <v>5000</v>
       </c>
       <c r="E13">
         <v>9000</v>
       </c>
       <c r="F13"/>
-      <c r="H13" s="6"/>
+      <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14">
@@ -1505,14 +1492,14 @@
       <c r="C14" s="4">
         <v>10</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="7">
         <v>5500</v>
       </c>
       <c r="E14">
         <v>10000</v>
       </c>
       <c r="F14"/>
-      <c r="H14" s="6"/>
+      <c r="H14" s="5"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15">
@@ -1524,13 +1511,13 @@
       <c r="C15" s="4">
         <v>1</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="7">
         <v>1000</v>
       </c>
       <c r="E15">
         <v>1000</v>
       </c>
-      <c r="H15" s="6"/>
+      <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16">
@@ -1542,13 +1529,13 @@
       <c r="C16" s="4">
         <v>2</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="7">
         <v>1500</v>
       </c>
       <c r="E16">
         <v>2000</v>
       </c>
-      <c r="H16" s="6"/>
+      <c r="H16" s="5"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
@@ -1560,7 +1547,7 @@
       <c r="C17" s="4">
         <v>3</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="7">
         <v>2000</v>
       </c>
       <c r="E17">
@@ -1577,7 +1564,7 @@
       <c r="C18" s="4">
         <v>4</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="7">
         <v>2500</v>
       </c>
       <c r="E18">
@@ -1594,7 +1581,7 @@
       <c r="C19" s="4">
         <v>5</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="7">
         <v>3000</v>
       </c>
       <c r="E19">
@@ -1611,7 +1598,7 @@
       <c r="C20" s="4">
         <v>6</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="7">
         <v>3500</v>
       </c>
       <c r="E20">
@@ -1628,7 +1615,7 @@
       <c r="C21" s="4">
         <v>7</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="7">
         <v>4000</v>
       </c>
       <c r="E21">
@@ -1645,7 +1632,7 @@
       <c r="C22" s="4">
         <v>8</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="7">
         <v>4500</v>
       </c>
       <c r="E22">
@@ -1662,7 +1649,7 @@
       <c r="C23" s="4">
         <v>9</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="7">
         <v>5000</v>
       </c>
       <c r="E23">
@@ -1679,7 +1666,7 @@
       <c r="C24" s="4">
         <v>10</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24" s="7">
         <v>5500</v>
       </c>
       <c r="E24">
@@ -1696,7 +1683,7 @@
       <c r="C25" s="4">
         <v>1</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D25" s="7">
         <v>1000</v>
       </c>
       <c r="E25">
@@ -1713,7 +1700,7 @@
       <c r="C26" s="4">
         <v>2</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D26" s="7">
         <v>1500</v>
       </c>
       <c r="E26">
@@ -1730,7 +1717,7 @@
       <c r="C27" s="4">
         <v>3</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D27" s="7">
         <v>2000</v>
       </c>
       <c r="E27">
@@ -1747,7 +1734,7 @@
       <c r="C28" s="4">
         <v>4</v>
       </c>
-      <c r="D28" s="8">
+      <c r="D28" s="7">
         <v>2500</v>
       </c>
       <c r="E28">
@@ -1764,7 +1751,7 @@
       <c r="C29" s="4">
         <v>5</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D29" s="7">
         <v>3000</v>
       </c>
       <c r="E29">
@@ -1781,7 +1768,7 @@
       <c r="C30" s="4">
         <v>6</v>
       </c>
-      <c r="D30" s="8">
+      <c r="D30" s="7">
         <v>3500</v>
       </c>
       <c r="E30">
@@ -1798,7 +1785,7 @@
       <c r="C31" s="4">
         <v>7</v>
       </c>
-      <c r="D31" s="8">
+      <c r="D31" s="7">
         <v>4000</v>
       </c>
       <c r="E31">
@@ -1815,7 +1802,7 @@
       <c r="C32" s="4">
         <v>8</v>
       </c>
-      <c r="D32" s="8">
+      <c r="D32" s="7">
         <v>4500</v>
       </c>
       <c r="E32">
@@ -1832,7 +1819,7 @@
       <c r="C33" s="4">
         <v>9</v>
       </c>
-      <c r="D33" s="8">
+      <c r="D33" s="7">
         <v>5000</v>
       </c>
       <c r="E33">
@@ -1849,7 +1836,7 @@
       <c r="C34" s="4">
         <v>10</v>
       </c>
-      <c r="D34" s="8">
+      <c r="D34" s="7">
         <v>5500</v>
       </c>
       <c r="E34">
@@ -1866,7 +1853,7 @@
       <c r="C35" s="4">
         <v>1</v>
       </c>
-      <c r="D35" s="8">
+      <c r="D35" s="7">
         <v>1000</v>
       </c>
       <c r="E35">
@@ -1883,7 +1870,7 @@
       <c r="C36" s="4">
         <v>2</v>
       </c>
-      <c r="D36" s="8">
+      <c r="D36" s="7">
         <v>1500</v>
       </c>
       <c r="E36">
@@ -1900,7 +1887,7 @@
       <c r="C37" s="4">
         <v>3</v>
       </c>
-      <c r="D37" s="8">
+      <c r="D37" s="7">
         <v>2000</v>
       </c>
       <c r="E37">
@@ -1917,7 +1904,7 @@
       <c r="C38" s="4">
         <v>4</v>
       </c>
-      <c r="D38" s="8">
+      <c r="D38" s="7">
         <v>2500</v>
       </c>
       <c r="E38">
@@ -1934,7 +1921,7 @@
       <c r="C39" s="4">
         <v>5</v>
       </c>
-      <c r="D39" s="8">
+      <c r="D39" s="7">
         <v>3000</v>
       </c>
       <c r="E39">
@@ -1951,7 +1938,7 @@
       <c r="C40" s="4">
         <v>6</v>
       </c>
-      <c r="D40" s="8">
+      <c r="D40" s="7">
         <v>3500</v>
       </c>
       <c r="E40">
@@ -1968,7 +1955,7 @@
       <c r="C41" s="4">
         <v>7</v>
       </c>
-      <c r="D41" s="8">
+      <c r="D41" s="7">
         <v>4000</v>
       </c>
       <c r="E41">
@@ -1985,7 +1972,7 @@
       <c r="C42" s="4">
         <v>8</v>
       </c>
-      <c r="D42" s="8">
+      <c r="D42" s="7">
         <v>4500</v>
       </c>
       <c r="E42">
@@ -2002,7 +1989,7 @@
       <c r="C43" s="4">
         <v>9</v>
       </c>
-      <c r="D43" s="8">
+      <c r="D43" s="7">
         <v>5000</v>
       </c>
       <c r="E43">
@@ -2019,7 +2006,7 @@
       <c r="C44" s="4">
         <v>10</v>
       </c>
-      <c r="D44" s="8">
+      <c r="D44" s="7">
         <v>5500</v>
       </c>
       <c r="E44">
@@ -2036,7 +2023,7 @@
       <c r="C45" s="4">
         <v>1</v>
       </c>
-      <c r="D45" s="8">
+      <c r="D45" s="7">
         <v>1000</v>
       </c>
       <c r="E45">
@@ -2053,7 +2040,7 @@
       <c r="C46" s="4">
         <v>2</v>
       </c>
-      <c r="D46" s="8">
+      <c r="D46" s="7">
         <v>1500</v>
       </c>
       <c r="E46">
@@ -2070,7 +2057,7 @@
       <c r="C47" s="4">
         <v>3</v>
       </c>
-      <c r="D47" s="8">
+      <c r="D47" s="7">
         <v>2000</v>
       </c>
       <c r="E47">
@@ -2087,7 +2074,7 @@
       <c r="C48" s="4">
         <v>4</v>
       </c>
-      <c r="D48" s="8">
+      <c r="D48" s="7">
         <v>2500</v>
       </c>
       <c r="E48">
@@ -2104,7 +2091,7 @@
       <c r="C49" s="4">
         <v>5</v>
       </c>
-      <c r="D49" s="8">
+      <c r="D49" s="7">
         <v>3000</v>
       </c>
       <c r="E49">
@@ -2121,7 +2108,7 @@
       <c r="C50" s="4">
         <v>6</v>
       </c>
-      <c r="D50" s="8">
+      <c r="D50" s="7">
         <v>3500</v>
       </c>
       <c r="E50">
@@ -2138,7 +2125,7 @@
       <c r="C51" s="4">
         <v>7</v>
       </c>
-      <c r="D51" s="8">
+      <c r="D51" s="7">
         <v>4000</v>
       </c>
       <c r="E51">
@@ -2155,7 +2142,7 @@
       <c r="C52" s="4">
         <v>8</v>
       </c>
-      <c r="D52" s="8">
+      <c r="D52" s="7">
         <v>4500</v>
       </c>
       <c r="E52">
@@ -2172,7 +2159,7 @@
       <c r="C53" s="4">
         <v>9</v>
       </c>
-      <c r="D53" s="8">
+      <c r="D53" s="7">
         <v>5000</v>
       </c>
       <c r="E53">
@@ -2189,7 +2176,7 @@
       <c r="C54" s="4">
         <v>10</v>
       </c>
-      <c r="D54" s="8">
+      <c r="D54" s="7">
         <v>5500</v>
       </c>
       <c r="E54">

--- a/docs/excel/TCarPartLevelup.xlsx
+++ b/docs/excel/TCarPartLevelup.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13650" tabRatio="204"/>
+    <workbookView windowWidth="28695" windowHeight="13050" tabRatio="204"/>
   </bookViews>
   <sheets>
     <sheet name="TCarPartLevelup" sheetId="1" r:id="rId1"/>
@@ -20,22 +20,7 @@
     <t>Id</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <charset val="134"/>
-      </rPr>
-      <t>P</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <charset val="134"/>
-      </rPr>
-      <t>artid</t>
-    </r>
+    <t>Quality</t>
   </si>
   <si>
     <t>Level</t>
@@ -112,22 +97,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>部件</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <charset val="134"/>
-      </rPr>
-      <t>id</t>
-    </r>
+    <t>品质</t>
   </si>
   <si>
     <t>升级前等级</t>
@@ -195,17 +165,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
-    <font>
-      <sz val="12"/>
-      <name val="Verdana"/>
-      <charset val="134"/>
-    </font>
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
@@ -215,21 +180,6 @@
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -246,30 +196,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -284,7 +212,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -292,7 +220,38 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -306,9 +265,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -322,44 +318,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -368,9 +326,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="34">
@@ -388,13 +348,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -406,13 +504,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,151 +528,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -582,11 +542,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -594,23 +560,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -633,19 +584,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -665,17 +605,37 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -684,171 +644,168 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1241,7 +1198,7 @@
   <dimension ref="A1:M54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45:E54"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1272,10 +1229,10 @@
       <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
@@ -1293,274 +1250,274 @@
       <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5">
-        <v>1001</v>
+        <v>1</v>
       </c>
       <c r="C5" s="4">
         <v>1</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="7">
         <v>1000</v>
       </c>
       <c r="E5">
         <v>1000</v>
       </c>
       <c r="F5"/>
-      <c r="H5" s="6"/>
+      <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6">
-        <v>1002</v>
+        <v>1</v>
       </c>
       <c r="C6" s="4">
         <v>2</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="7">
         <v>1500</v>
       </c>
       <c r="E6">
         <v>2000</v>
       </c>
       <c r="F6"/>
-      <c r="H6" s="6"/>
+      <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7">
         <v>3</v>
       </c>
       <c r="B7">
-        <v>1003</v>
+        <v>1</v>
       </c>
       <c r="C7" s="4">
         <v>3</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="7">
         <v>2000</v>
       </c>
       <c r="E7">
         <v>3000</v>
       </c>
       <c r="F7"/>
-      <c r="H7" s="6"/>
+      <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8">
         <v>4</v>
       </c>
       <c r="B8">
-        <v>1004</v>
+        <v>1</v>
       </c>
       <c r="C8" s="4">
         <v>4</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="7">
         <v>2500</v>
       </c>
       <c r="E8">
         <v>4000</v>
       </c>
       <c r="F8"/>
-      <c r="H8" s="6"/>
+      <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9">
         <v>5</v>
       </c>
       <c r="B9">
-        <v>1005</v>
+        <v>1</v>
       </c>
       <c r="C9" s="4">
         <v>5</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="7">
         <v>3000</v>
       </c>
       <c r="E9">
         <v>5000</v>
       </c>
       <c r="F9"/>
-      <c r="H9" s="6"/>
+      <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10">
         <v>6</v>
       </c>
       <c r="B10">
-        <v>1006</v>
+        <v>1</v>
       </c>
       <c r="C10" s="4">
         <v>6</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="7">
         <v>3500</v>
       </c>
       <c r="E10">
         <v>6000</v>
       </c>
       <c r="F10"/>
-      <c r="H10" s="6"/>
+      <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11">
         <v>7</v>
       </c>
       <c r="B11">
-        <v>1007</v>
+        <v>1</v>
       </c>
       <c r="C11" s="4">
         <v>7</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="7">
         <v>4000</v>
       </c>
       <c r="E11">
         <v>7000</v>
       </c>
       <c r="F11"/>
-      <c r="H11" s="6"/>
+      <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12">
         <v>8</v>
       </c>
       <c r="B12">
-        <v>1008</v>
+        <v>1</v>
       </c>
       <c r="C12" s="4">
         <v>8</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="7">
         <v>4500</v>
       </c>
       <c r="E12">
         <v>8000</v>
       </c>
       <c r="F12"/>
-      <c r="H12" s="6"/>
+      <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13">
         <v>9</v>
       </c>
       <c r="B13">
-        <v>1009</v>
+        <v>1</v>
       </c>
       <c r="C13" s="4">
         <v>9</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="7">
         <v>5000</v>
       </c>
       <c r="E13">
         <v>9000</v>
       </c>
       <c r="F13"/>
-      <c r="H13" s="6"/>
+      <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14">
         <v>10</v>
       </c>
       <c r="B14">
-        <v>1010</v>
+        <v>1</v>
       </c>
       <c r="C14" s="4">
         <v>10</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="7">
         <v>5500</v>
       </c>
       <c r="E14">
         <v>10000</v>
       </c>
       <c r="F14"/>
-      <c r="H14" s="6"/>
+      <c r="H14" s="5"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15">
         <v>11</v>
       </c>
       <c r="B15">
-        <v>2001</v>
+        <v>2</v>
       </c>
       <c r="C15" s="4">
         <v>1</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="7">
         <v>1000</v>
       </c>
       <c r="E15">
         <v>1000</v>
       </c>
-      <c r="H15" s="6"/>
+      <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16">
         <v>12</v>
       </c>
       <c r="B16">
-        <v>2002</v>
+        <v>2</v>
       </c>
       <c r="C16" s="4">
         <v>2</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="7">
         <v>1500</v>
       </c>
       <c r="E16">
         <v>2000</v>
       </c>
-      <c r="H16" s="6"/>
+      <c r="H16" s="5"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
         <v>13</v>
       </c>
       <c r="B17">
-        <v>2003</v>
+        <v>2</v>
       </c>
       <c r="C17" s="4">
         <v>3</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="7">
         <v>2000</v>
       </c>
       <c r="E17">
@@ -1572,12 +1529,12 @@
         <v>14</v>
       </c>
       <c r="B18">
-        <v>2004</v>
+        <v>2</v>
       </c>
       <c r="C18" s="4">
         <v>4</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="7">
         <v>2500</v>
       </c>
       <c r="E18">
@@ -1589,12 +1546,12 @@
         <v>15</v>
       </c>
       <c r="B19">
-        <v>2005</v>
+        <v>2</v>
       </c>
       <c r="C19" s="4">
         <v>5</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="7">
         <v>3000</v>
       </c>
       <c r="E19">
@@ -1606,12 +1563,12 @@
         <v>16</v>
       </c>
       <c r="B20">
-        <v>2006</v>
+        <v>2</v>
       </c>
       <c r="C20" s="4">
         <v>6</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="7">
         <v>3500</v>
       </c>
       <c r="E20">
@@ -1623,12 +1580,12 @@
         <v>17</v>
       </c>
       <c r="B21">
-        <v>2007</v>
+        <v>2</v>
       </c>
       <c r="C21" s="4">
         <v>7</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="7">
         <v>4000</v>
       </c>
       <c r="E21">
@@ -1640,12 +1597,12 @@
         <v>18</v>
       </c>
       <c r="B22">
-        <v>2008</v>
+        <v>2</v>
       </c>
       <c r="C22" s="4">
         <v>8</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="7">
         <v>4500</v>
       </c>
       <c r="E22">
@@ -1657,12 +1614,12 @@
         <v>19</v>
       </c>
       <c r="B23">
-        <v>2009</v>
+        <v>2</v>
       </c>
       <c r="C23" s="4">
         <v>9</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="7">
         <v>5000</v>
       </c>
       <c r="E23">
@@ -1674,12 +1631,12 @@
         <v>20</v>
       </c>
       <c r="B24">
-        <v>2010</v>
+        <v>2</v>
       </c>
       <c r="C24" s="4">
         <v>10</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24" s="7">
         <v>5500</v>
       </c>
       <c r="E24">
@@ -1691,12 +1648,12 @@
         <v>21</v>
       </c>
       <c r="B25">
-        <v>3001</v>
+        <v>3</v>
       </c>
       <c r="C25" s="4">
         <v>1</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D25" s="7">
         <v>1000</v>
       </c>
       <c r="E25">
@@ -1708,12 +1665,12 @@
         <v>22</v>
       </c>
       <c r="B26">
-        <v>3002</v>
+        <v>3</v>
       </c>
       <c r="C26" s="4">
         <v>2</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D26" s="7">
         <v>1500</v>
       </c>
       <c r="E26">
@@ -1725,12 +1682,12 @@
         <v>23</v>
       </c>
       <c r="B27">
-        <v>3003</v>
+        <v>3</v>
       </c>
       <c r="C27" s="4">
         <v>3</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D27" s="7">
         <v>2000</v>
       </c>
       <c r="E27">
@@ -1742,12 +1699,12 @@
         <v>24</v>
       </c>
       <c r="B28">
-        <v>3004</v>
+        <v>3</v>
       </c>
       <c r="C28" s="4">
         <v>4</v>
       </c>
-      <c r="D28" s="8">
+      <c r="D28" s="7">
         <v>2500</v>
       </c>
       <c r="E28">
@@ -1759,12 +1716,12 @@
         <v>25</v>
       </c>
       <c r="B29">
-        <v>3005</v>
+        <v>3</v>
       </c>
       <c r="C29" s="4">
         <v>5</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D29" s="7">
         <v>3000</v>
       </c>
       <c r="E29">
@@ -1776,12 +1733,12 @@
         <v>26</v>
       </c>
       <c r="B30">
-        <v>3006</v>
+        <v>3</v>
       </c>
       <c r="C30" s="4">
         <v>6</v>
       </c>
-      <c r="D30" s="8">
+      <c r="D30" s="7">
         <v>3500</v>
       </c>
       <c r="E30">
@@ -1793,12 +1750,12 @@
         <v>27</v>
       </c>
       <c r="B31">
-        <v>3007</v>
+        <v>3</v>
       </c>
       <c r="C31" s="4">
         <v>7</v>
       </c>
-      <c r="D31" s="8">
+      <c r="D31" s="7">
         <v>4000</v>
       </c>
       <c r="E31">
@@ -1810,12 +1767,12 @@
         <v>28</v>
       </c>
       <c r="B32">
-        <v>3008</v>
+        <v>3</v>
       </c>
       <c r="C32" s="4">
         <v>8</v>
       </c>
-      <c r="D32" s="8">
+      <c r="D32" s="7">
         <v>4500</v>
       </c>
       <c r="E32">
@@ -1827,12 +1784,12 @@
         <v>29</v>
       </c>
       <c r="B33">
-        <v>3009</v>
+        <v>3</v>
       </c>
       <c r="C33" s="4">
         <v>9</v>
       </c>
-      <c r="D33" s="8">
+      <c r="D33" s="7">
         <v>5000</v>
       </c>
       <c r="E33">
@@ -1844,12 +1801,12 @@
         <v>30</v>
       </c>
       <c r="B34">
-        <v>3010</v>
+        <v>3</v>
       </c>
       <c r="C34" s="4">
         <v>10</v>
       </c>
-      <c r="D34" s="8">
+      <c r="D34" s="7">
         <v>5500</v>
       </c>
       <c r="E34">
@@ -1861,12 +1818,12 @@
         <v>31</v>
       </c>
       <c r="B35">
-        <v>4001</v>
+        <v>4</v>
       </c>
       <c r="C35" s="4">
         <v>1</v>
       </c>
-      <c r="D35" s="8">
+      <c r="D35" s="7">
         <v>1000</v>
       </c>
       <c r="E35">
@@ -1878,12 +1835,12 @@
         <v>32</v>
       </c>
       <c r="B36">
-        <v>4002</v>
+        <v>4</v>
       </c>
       <c r="C36" s="4">
         <v>2</v>
       </c>
-      <c r="D36" s="8">
+      <c r="D36" s="7">
         <v>1500</v>
       </c>
       <c r="E36">
@@ -1895,12 +1852,12 @@
         <v>33</v>
       </c>
       <c r="B37">
-        <v>4003</v>
+        <v>4</v>
       </c>
       <c r="C37" s="4">
         <v>3</v>
       </c>
-      <c r="D37" s="8">
+      <c r="D37" s="7">
         <v>2000</v>
       </c>
       <c r="E37">
@@ -1912,12 +1869,12 @@
         <v>34</v>
       </c>
       <c r="B38">
-        <v>4004</v>
+        <v>4</v>
       </c>
       <c r="C38" s="4">
         <v>4</v>
       </c>
-      <c r="D38" s="8">
+      <c r="D38" s="7">
         <v>2500</v>
       </c>
       <c r="E38">
@@ -1929,12 +1886,12 @@
         <v>35</v>
       </c>
       <c r="B39">
-        <v>4005</v>
+        <v>4</v>
       </c>
       <c r="C39" s="4">
         <v>5</v>
       </c>
-      <c r="D39" s="8">
+      <c r="D39" s="7">
         <v>3000</v>
       </c>
       <c r="E39">
@@ -1946,12 +1903,12 @@
         <v>36</v>
       </c>
       <c r="B40">
-        <v>4006</v>
+        <v>4</v>
       </c>
       <c r="C40" s="4">
         <v>6</v>
       </c>
-      <c r="D40" s="8">
+      <c r="D40" s="7">
         <v>3500</v>
       </c>
       <c r="E40">
@@ -1963,12 +1920,12 @@
         <v>37</v>
       </c>
       <c r="B41">
-        <v>4007</v>
+        <v>4</v>
       </c>
       <c r="C41" s="4">
         <v>7</v>
       </c>
-      <c r="D41" s="8">
+      <c r="D41" s="7">
         <v>4000</v>
       </c>
       <c r="E41">
@@ -1980,12 +1937,12 @@
         <v>38</v>
       </c>
       <c r="B42">
-        <v>4008</v>
+        <v>4</v>
       </c>
       <c r="C42" s="4">
         <v>8</v>
       </c>
-      <c r="D42" s="8">
+      <c r="D42" s="7">
         <v>4500</v>
       </c>
       <c r="E42">
@@ -1997,12 +1954,12 @@
         <v>39</v>
       </c>
       <c r="B43">
-        <v>4009</v>
+        <v>4</v>
       </c>
       <c r="C43" s="4">
         <v>9</v>
       </c>
-      <c r="D43" s="8">
+      <c r="D43" s="7">
         <v>5000</v>
       </c>
       <c r="E43">
@@ -2014,12 +1971,12 @@
         <v>40</v>
       </c>
       <c r="B44">
-        <v>4010</v>
+        <v>4</v>
       </c>
       <c r="C44" s="4">
         <v>10</v>
       </c>
-      <c r="D44" s="8">
+      <c r="D44" s="7">
         <v>5500</v>
       </c>
       <c r="E44">
@@ -2031,12 +1988,12 @@
         <v>41</v>
       </c>
       <c r="B45">
-        <v>5001</v>
+        <v>5</v>
       </c>
       <c r="C45" s="4">
         <v>1</v>
       </c>
-      <c r="D45" s="8">
+      <c r="D45" s="7">
         <v>1000</v>
       </c>
       <c r="E45">
@@ -2048,12 +2005,12 @@
         <v>42</v>
       </c>
       <c r="B46">
-        <v>5002</v>
+        <v>5</v>
       </c>
       <c r="C46" s="4">
         <v>2</v>
       </c>
-      <c r="D46" s="8">
+      <c r="D46" s="7">
         <v>1500</v>
       </c>
       <c r="E46">
@@ -2065,12 +2022,12 @@
         <v>43</v>
       </c>
       <c r="B47">
-        <v>5003</v>
+        <v>5</v>
       </c>
       <c r="C47" s="4">
         <v>3</v>
       </c>
-      <c r="D47" s="8">
+      <c r="D47" s="7">
         <v>2000</v>
       </c>
       <c r="E47">
@@ -2082,12 +2039,12 @@
         <v>44</v>
       </c>
       <c r="B48">
-        <v>5004</v>
+        <v>5</v>
       </c>
       <c r="C48" s="4">
         <v>4</v>
       </c>
-      <c r="D48" s="8">
+      <c r="D48" s="7">
         <v>2500</v>
       </c>
       <c r="E48">
@@ -2099,12 +2056,12 @@
         <v>45</v>
       </c>
       <c r="B49">
-        <v>5005</v>
+        <v>5</v>
       </c>
       <c r="C49" s="4">
         <v>5</v>
       </c>
-      <c r="D49" s="8">
+      <c r="D49" s="7">
         <v>3000</v>
       </c>
       <c r="E49">
@@ -2116,12 +2073,12 @@
         <v>46</v>
       </c>
       <c r="B50">
-        <v>5006</v>
+        <v>5</v>
       </c>
       <c r="C50" s="4">
         <v>6</v>
       </c>
-      <c r="D50" s="8">
+      <c r="D50" s="7">
         <v>3500</v>
       </c>
       <c r="E50">
@@ -2133,12 +2090,12 @@
         <v>47</v>
       </c>
       <c r="B51">
-        <v>5007</v>
+        <v>5</v>
       </c>
       <c r="C51" s="4">
         <v>7</v>
       </c>
-      <c r="D51" s="8">
+      <c r="D51" s="7">
         <v>4000</v>
       </c>
       <c r="E51">
@@ -2150,12 +2107,12 @@
         <v>48</v>
       </c>
       <c r="B52">
-        <v>5008</v>
+        <v>5</v>
       </c>
       <c r="C52" s="4">
         <v>8</v>
       </c>
-      <c r="D52" s="8">
+      <c r="D52" s="7">
         <v>4500</v>
       </c>
       <c r="E52">
@@ -2167,12 +2124,12 @@
         <v>49</v>
       </c>
       <c r="B53">
-        <v>5009</v>
+        <v>5</v>
       </c>
       <c r="C53" s="4">
         <v>9</v>
       </c>
-      <c r="D53" s="8">
+      <c r="D53" s="7">
         <v>5000</v>
       </c>
       <c r="E53">
@@ -2184,12 +2141,12 @@
         <v>50</v>
       </c>
       <c r="B54">
-        <v>5010</v>
+        <v>5</v>
       </c>
       <c r="C54" s="4">
         <v>10</v>
       </c>
-      <c r="D54" s="8">
+      <c r="D54" s="7">
         <v>5500</v>
       </c>
       <c r="E54">
